--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H2">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N2">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q2">
-        <v>7.432252201338936</v>
+        <v>35.072370283136</v>
       </c>
       <c r="R2">
-        <v>7.432252201338936</v>
+        <v>315.651332548224</v>
       </c>
       <c r="S2">
-        <v>0.01521705663896208</v>
+        <v>0.03147098865093995</v>
       </c>
       <c r="T2">
-        <v>0.01521705663896208</v>
+        <v>0.03147098865093995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H3">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N3">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q3">
-        <v>5.180138657542088</v>
+        <v>11.77226107648</v>
       </c>
       <c r="R3">
-        <v>5.180138657542088</v>
+        <v>105.95034968832</v>
       </c>
       <c r="S3">
-        <v>0.01060599952936126</v>
+        <v>0.01056343474201816</v>
       </c>
       <c r="T3">
-        <v>0.01060599952936126</v>
+        <v>0.01056343474201816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H4">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N4">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q4">
-        <v>432.0361013413954</v>
+        <v>984.491923075792</v>
       </c>
       <c r="R4">
-        <v>432.0361013413954</v>
+        <v>8860.427307682128</v>
       </c>
       <c r="S4">
-        <v>0.8845660300660944</v>
+        <v>0.8834000635810451</v>
       </c>
       <c r="T4">
-        <v>0.8845660300660944</v>
+        <v>0.8834000635810451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N5">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q5">
-        <v>0.3688155199819215</v>
+        <v>1.462178491985778</v>
       </c>
       <c r="R5">
-        <v>0.3688155199819215</v>
+        <v>13.159606427872</v>
       </c>
       <c r="S5">
-        <v>0.0007551259705479431</v>
+        <v>0.001312035723717798</v>
       </c>
       <c r="T5">
-        <v>0.0007551259705479431</v>
+        <v>0.001312035723717798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N6">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q6">
-        <v>0.2570574142001875</v>
+        <v>0.490789382328889</v>
       </c>
       <c r="R6">
-        <v>0.2570574142001875</v>
+        <v>4.417104440960001</v>
       </c>
       <c r="S6">
-        <v>0.0005263084628162503</v>
+        <v>0.0004403930203913558</v>
       </c>
       <c r="T6">
-        <v>0.0005263084628162503</v>
+        <v>0.0004403930203913558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N7">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q7">
-        <v>21.4392104910653</v>
+        <v>41.04378756936489</v>
       </c>
       <c r="R7">
-        <v>21.4392104910653</v>
+        <v>369.3940881242841</v>
       </c>
       <c r="S7">
-        <v>0.04389539960422731</v>
+        <v>0.03682923516030968</v>
       </c>
       <c r="T7">
-        <v>0.04389539960422731</v>
+        <v>0.03682923516030968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N8">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q8">
-        <v>0.36275180784383</v>
+        <v>1.363725794065778</v>
       </c>
       <c r="R8">
-        <v>0.36275180784383</v>
+        <v>12.273532146592</v>
       </c>
       <c r="S8">
-        <v>0.0007427109113508027</v>
+        <v>0.001223692571718613</v>
       </c>
       <c r="T8">
-        <v>0.0007427109113508027</v>
+        <v>0.001223692571718613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N9">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q9">
-        <v>0.2528311219803034</v>
+        <v>0.4577431167288889</v>
       </c>
       <c r="R9">
-        <v>0.2528311219803034</v>
+        <v>4.11968805056</v>
       </c>
       <c r="S9">
-        <v>0.0005176554022983101</v>
+        <v>0.0004107400872916612</v>
       </c>
       <c r="T9">
-        <v>0.0005176554022983101</v>
+        <v>0.0004107400872916612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N10">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q10">
-        <v>21.08672749118465</v>
+        <v>38.28019089412489</v>
       </c>
       <c r="R10">
-        <v>21.08672749118465</v>
+        <v>344.521718047124</v>
       </c>
       <c r="S10">
-        <v>0.04317371341434144</v>
+        <v>0.03434941646256762</v>
       </c>
       <c r="T10">
-        <v>0.04317371341434144</v>
+        <v>0.03434941646256762</v>
       </c>
     </row>
   </sheetData>
